--- a/06-Estadisticas-Formulas.xlsx
+++ b/06-Estadisticas-Formulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel\Clases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227E4550-61F5-4A71-BA8B-3903BAD66994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE5F286-0CD6-4A7C-9B74-C17DC7D5D1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Positivo y Negativo" sheetId="5" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t xml:space="preserve">MEDIANA </t>
   </si>
   <si>
-    <t>MODA</t>
-  </si>
-  <si>
     <t>Max</t>
   </si>
   <si>
@@ -1176,9 +1173,6 @@
  se usa una suma</t>
   </si>
   <si>
-    <t>=100+(-50)</t>
-  </si>
-  <si>
     <t>Numero1</t>
   </si>
   <si>
@@ -1210,6 +1204,12 @@
   </si>
   <si>
     <t>Explicacion para la Mediana</t>
+  </si>
+  <si>
+    <t>=150+(-100)</t>
+  </si>
+  <si>
+    <t>MODA.UNO</t>
   </si>
 </sst>
 </file>
@@ -1949,6 +1949,24 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1961,23 +1979,17 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1997,16 +2009,28 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2033,32 +2057,8 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2612,6 +2612,126 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1407585</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3680FCE-3A02-4888-A17C-E17273173515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="2" t="1" r="25125" b="3571"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4656668" y="14075833"/>
+          <a:ext cx="8350250" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1576917</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>867833</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>211667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Elipse 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D94CB0C-1F22-B1FD-B4C6-74F038C91C25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286750" y="13906500"/>
+          <a:ext cx="1090083" cy="624417"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2914,8 +3034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEA1436-BDD4-4B97-93B7-6D2AD8E7D1FE}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -2928,44 +3048,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="A1" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
+      <c r="A2" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="C3" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="D3" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
+      <c r="E3" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="32">
         <v>150</v>
@@ -2977,14 +3097,14 @@
         <f>B4+C4</f>
         <v>50</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="34">
         <v>330</v>
@@ -2996,14 +3116,14 @@
         <f t="shared" ref="D5:D9" si="0">B5+C5</f>
         <v>180</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="32">
         <v>225</v>
@@ -3015,14 +3135,14 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="34">
         <v>450</v>
@@ -3034,14 +3154,14 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="32">
         <v>120</v>
@@ -3053,14 +3173,14 @@
         <f t="shared" si="0"/>
         <v>-80</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="34">
         <v>300</v>
@@ -3072,46 +3192,46 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="37" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
+      <c r="A11" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="36">
         <f>SUM(D4:D9)</f>
         <v>615</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E12" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E12" s="48" t="s">
+      <c r="F12" s="55"/>
+      <c r="G12" s="38" t="s">
         <v>93</v>
-      </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="38" t="s">
-        <v>94</v>
       </c>
       <c r="H12" s="39">
         <f>100-(-50)</f>
@@ -3119,12 +3239,12 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E13" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="49"/>
+      <c r="E13" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="55"/>
       <c r="G13" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H13" s="39">
         <f>B16-C16</f>
@@ -3132,27 +3252,27 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="E14" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" s="35"/>
-      <c r="E15" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
+      <c r="E15" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="41">
@@ -3161,25 +3281,25 @@
       <c r="C16" s="41">
         <v>-30</v>
       </c>
-      <c r="E16" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="49"/>
+      <c r="E16" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="55"/>
       <c r="G16" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" s="39">
-        <f>100+(-50)</f>
+        <f>150+(-100)</f>
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E17" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="49"/>
+      <c r="E17" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="55"/>
       <c r="G17" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H17" s="39">
         <f>B16+C16</f>
@@ -3188,11 +3308,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E10:H10"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E3:H9"/>
@@ -3200,6 +3315,11 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3211,7 +3331,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3233,7 +3353,7 @@
     </row>
     <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3245,99 +3365,99 @@
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="65"/>
+      <c r="B5" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="66" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="65"/>
+      <c r="B7" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="63" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="66" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="65"/>
+      <c r="B9" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="26" t="s">
-        <v>57</v>
-      </c>
       <c r="G9" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
@@ -3349,7 +3469,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="63" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3"/>
@@ -3359,7 +3479,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -3376,10 +3496,10 @@
     </row>
     <row r="14" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>15</v>
@@ -3392,7 +3512,7 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3411,7 +3531,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
       <c r="G15" s="12">
-        <f>COUNT(D15:D23)</f>
+        <f>COUNT(B15:B23)</f>
         <v>9</v>
       </c>
     </row>
@@ -3429,7 +3549,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="3"/>
       <c r="G16" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3462,13 +3582,11 @@
       <c r="C18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="10">
-        <v>43284</v>
-      </c>
+      <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="58" t="s">
-        <v>43</v>
+      <c r="G18" s="62" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3486,7 +3604,7 @@
         <v>43449</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="58"/>
+      <c r="G19" s="62"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
@@ -3503,7 +3621,7 @@
         <v>43454</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="58"/>
+      <c r="G20" s="62"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
@@ -3568,11 +3686,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G18:G20"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
@@ -3580,6 +3693,11 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G18:G20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" location=":~:text=Use%20la%20funci%C3%B3n%20CONTAR%20para,n%C3%BAmeros%2C%20el%20resultado%20es%205." xr:uid="{F951F1A4-788D-4909-9998-FF2057306F4E}"/>
@@ -3595,8 +3713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:N42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -3617,23 +3735,23 @@
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="str">
         <f>B4&amp;", "&amp;B6&amp;", "&amp;B8&amp;" y "&amp;B10</f>
-        <v>MAX, MIN, MEDIANA  y MODA</v>
+        <v>MAX, MIN, MEDIANA  y MODA.UNO</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -3642,131 +3760,131 @@
       <c r="N3" s="22"/>
     </row>
     <row r="4" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="71"/>
+      <c r="C5" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="68"/>
+      <c r="I5" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="70" t="s">
+    </row>
+    <row r="6" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="77"/>
-      <c r="C5" s="78" t="s">
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="2:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="71"/>
+      <c r="C7" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="82" t="s">
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="73" t="s">
+      <c r="H7" s="68"/>
+      <c r="I7" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="70" t="s">
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="2:14" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="71"/>
+      <c r="C9" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="68"/>
+      <c r="I9" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="2:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="77"/>
-      <c r="C7" s="78" t="s">
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="71"/>
+      <c r="C11" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="2:14" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="77"/>
-      <c r="C9" s="78" t="s">
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="77"/>
-      <c r="C11" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="82"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -3776,107 +3894,107 @@
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="63" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="59"/>
+      <c r="B14" s="63"/>
     </row>
     <row r="15" spans="2:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
+      <c r="B15" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="16">
         <v>31</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="16">
         <v>39</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="16">
         <v>49</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="16">
         <v>41</v>
       </c>
-      <c r="E20" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="83"/>
+      <c r="E20" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="84"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="16">
         <v>17</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="16">
         <v>59</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="16">
         <v>49</v>
@@ -3884,7 +4002,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="16">
         <v>49</v>
@@ -3892,7 +4010,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="16">
         <v>28</v>
@@ -3900,22 +4018,22 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="16">
         <v>39</v>
       </c>
-      <c r="E26" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
+      <c r="E26" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="16">
         <v>47</v>
@@ -3923,7 +4041,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="16">
         <v>45</v>
@@ -3932,27 +4050,27 @@
     </row>
     <row r="29" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E33" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="68"/>
-      <c r="H33" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="I33" s="68"/>
+      <c r="E33" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="76"/>
+      <c r="H33" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" s="76"/>
     </row>
     <row r="34" spans="5:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I34" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="5:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3968,8 +4086,8 @@
       <c r="I35" s="45">
         <v>1</v>
       </c>
-      <c r="J35" s="69" t="s">
-        <v>107</v>
+      <c r="J35" s="77" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.3">
@@ -3985,7 +4103,7 @@
       <c r="I36" s="45">
         <v>2</v>
       </c>
-      <c r="J36" s="69"/>
+      <c r="J36" s="77"/>
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E37" s="45">
@@ -4001,7 +4119,7 @@
         <v>3</v>
       </c>
       <c r="J37" s="46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="5:10" x14ac:dyDescent="0.3">
@@ -4042,7 +4160,7 @@
     </row>
     <row r="41" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E41" s="42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F41" s="13">
         <f>MEDIAN(E35:E39)</f>
@@ -4051,7 +4169,7 @@
     </row>
     <row r="42" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H42" s="42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I42" s="13">
         <f>MEDIAN(H35:H40)</f>
@@ -4060,6 +4178,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G7:H7"/>
@@ -4076,18 +4206,6 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I9" r:id="rId1" display="Documentacion" xr:uid="{0A73E777-B2A6-4D4F-843A-FFE9112E7685}"/>
